--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Col1a1-Cd93.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Col1a1-Cd93.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.66003045967672</v>
+        <v>6.072131</v>
       </c>
       <c r="H2">
-        <v>1.66003045967672</v>
+        <v>18.216393</v>
       </c>
       <c r="I2">
-        <v>0.001085566696967822</v>
+        <v>0.003943999267036455</v>
       </c>
       <c r="J2">
-        <v>0.001085566696967822</v>
+        <v>0.003943999267036454</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>81.5986952298079</v>
+        <v>122.328922</v>
       </c>
       <c r="N2">
-        <v>81.5986952298079</v>
+        <v>366.986766</v>
       </c>
       <c r="O2">
-        <v>0.9708116216203443</v>
+        <v>0.9783373008518612</v>
       </c>
       <c r="P2">
-        <v>0.9708116216203443</v>
+        <v>0.9783373008518613</v>
       </c>
       <c r="Q2">
-        <v>135.4563195513586</v>
+        <v>742.7972394727819</v>
       </c>
       <c r="R2">
-        <v>135.4563195513586</v>
+        <v>6685.175155255038</v>
       </c>
       <c r="S2">
-        <v>0.001053880765460373</v>
+        <v>0.003858561597474164</v>
       </c>
       <c r="T2">
-        <v>0.001053880765460373</v>
+        <v>0.003858561597474164</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.66003045967672</v>
+        <v>6.072131</v>
       </c>
       <c r="H3">
-        <v>1.66003045967672</v>
+        <v>18.216393</v>
       </c>
       <c r="I3">
-        <v>0.001085566696967822</v>
+        <v>0.003943999267036455</v>
       </c>
       <c r="J3">
-        <v>0.001085566696967822</v>
+        <v>0.003943999267036454</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.251722615305948</v>
+        <v>0.3863573333333334</v>
       </c>
       <c r="N3">
-        <v>0.251722615305948</v>
+        <v>1.159072</v>
       </c>
       <c r="O3">
-        <v>0.002994842499324812</v>
+        <v>0.003089929874945324</v>
       </c>
       <c r="P3">
-        <v>0.002994842499324812</v>
+        <v>0.003089929874945324</v>
       </c>
       <c r="Q3">
-        <v>0.4178672087973591</v>
+        <v>2.346012340810667</v>
       </c>
       <c r="R3">
-        <v>0.4178672087973591</v>
+        <v>21.114111067296</v>
       </c>
       <c r="S3">
-        <v>3.251101279930894E-06</v>
+        <v>1.21866811619784E-05</v>
       </c>
       <c r="T3">
-        <v>3.251101279930894E-06</v>
+        <v>1.21866811619784E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.66003045967672</v>
+        <v>6.072131</v>
       </c>
       <c r="H4">
-        <v>1.66003045967672</v>
+        <v>18.216393</v>
       </c>
       <c r="I4">
-        <v>0.001085566696967822</v>
+        <v>0.003943999267036455</v>
       </c>
       <c r="J4">
-        <v>0.001085566696967822</v>
+        <v>0.003943999267036454</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.20162007096986</v>
+        <v>2.322294</v>
       </c>
       <c r="N4">
-        <v>2.20162007096986</v>
+        <v>6.966882000000001</v>
       </c>
       <c r="O4">
-        <v>0.02619353588033075</v>
+        <v>0.0185727692731934</v>
       </c>
       <c r="P4">
-        <v>0.02619353588033075</v>
+        <v>0.0185727692731934</v>
       </c>
       <c r="Q4">
-        <v>3.654756378445589</v>
+        <v>14.101273388514</v>
       </c>
       <c r="R4">
-        <v>3.654756378445589</v>
+        <v>126.911460496626</v>
       </c>
       <c r="S4">
-        <v>2.84348302275188E-05</v>
+        <v>7.325098840031197E-05</v>
       </c>
       <c r="T4">
-        <v>2.84348302275188E-05</v>
+        <v>7.325098840031196E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1476.30280581482</v>
+        <v>1480.851806666667</v>
       </c>
       <c r="H5">
-        <v>1476.30280581482</v>
+        <v>4442.55542</v>
       </c>
       <c r="I5">
-        <v>0.9654191290832239</v>
+        <v>0.9618498744646554</v>
       </c>
       <c r="J5">
-        <v>0.9654191290832239</v>
+        <v>0.9618498744646552</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>81.5986952298079</v>
+        <v>122.328922</v>
       </c>
       <c r="N5">
-        <v>81.5986952298079</v>
+        <v>366.986766</v>
       </c>
       <c r="O5">
-        <v>0.9708116216203443</v>
+        <v>0.9783373008518612</v>
       </c>
       <c r="P5">
-        <v>0.9708116216203443</v>
+        <v>0.9783373008518613</v>
       </c>
       <c r="Q5">
-        <v>120464.3827185938</v>
+        <v>181151.0051512857</v>
       </c>
       <c r="R5">
-        <v>120464.3827185938</v>
+        <v>1630359.046361572</v>
       </c>
       <c r="S5">
-        <v>0.9372401102485851</v>
+        <v>0.9410136100084525</v>
       </c>
       <c r="T5">
-        <v>0.9372401102485851</v>
+        <v>0.9410136100084524</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1476.30280581482</v>
+        <v>1480.851806666667</v>
       </c>
       <c r="H6">
-        <v>1476.30280581482</v>
+        <v>4442.55542</v>
       </c>
       <c r="I6">
-        <v>0.9654191290832239</v>
+        <v>0.9618498744646554</v>
       </c>
       <c r="J6">
-        <v>0.9654191290832239</v>
+        <v>0.9618498744646552</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.251722615305948</v>
+        <v>0.3863573333333334</v>
       </c>
       <c r="N6">
-        <v>0.251722615305948</v>
+        <v>1.159072</v>
       </c>
       <c r="O6">
-        <v>0.002994842499324812</v>
+        <v>0.003089929874945324</v>
       </c>
       <c r="P6">
-        <v>0.002994842499324812</v>
+        <v>0.003089929874945324</v>
       </c>
       <c r="Q6">
-        <v>371.6188032632156</v>
+        <v>572.1379550855822</v>
       </c>
       <c r="R6">
-        <v>371.6188032632156</v>
+        <v>5149.24159577024</v>
       </c>
       <c r="S6">
-        <v>0.002891278237439586</v>
+        <v>0.002972048662320748</v>
       </c>
       <c r="T6">
-        <v>0.002891278237439586</v>
+        <v>0.002972048662320747</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1476.30280581482</v>
+        <v>1480.851806666667</v>
       </c>
       <c r="H7">
-        <v>1476.30280581482</v>
+        <v>4442.55542</v>
       </c>
       <c r="I7">
-        <v>0.9654191290832239</v>
+        <v>0.9618498744646554</v>
       </c>
       <c r="J7">
-        <v>0.9654191290832239</v>
+        <v>0.9618498744646552</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.20162007096986</v>
+        <v>2.322294</v>
       </c>
       <c r="N7">
-        <v>2.20162007096986</v>
+        <v>6.966882000000001</v>
       </c>
       <c r="O7">
-        <v>0.02619353588033075</v>
+        <v>0.0185727692731934</v>
       </c>
       <c r="P7">
-        <v>0.02619353588033075</v>
+        <v>0.0185727692731934</v>
       </c>
       <c r="Q7">
-        <v>3250.257888111027</v>
+        <v>3438.97326551116</v>
       </c>
       <c r="R7">
-        <v>3250.257888111027</v>
+        <v>30950.75938960044</v>
       </c>
       <c r="S7">
-        <v>0.02528774059719909</v>
+        <v>0.01786421579388208</v>
       </c>
       <c r="T7">
-        <v>0.02528774059719909</v>
+        <v>0.01786421579388208</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>51.2204597067405</v>
+        <v>52.663316</v>
       </c>
       <c r="H8">
-        <v>51.2204597067405</v>
+        <v>157.989948</v>
       </c>
       <c r="I8">
-        <v>0.03349530421980817</v>
+        <v>0.03420612626830831</v>
       </c>
       <c r="J8">
-        <v>0.03349530421980817</v>
+        <v>0.0342061262683083</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>81.5986952298079</v>
+        <v>122.328922</v>
       </c>
       <c r="N8">
-        <v>81.5986952298079</v>
+        <v>366.986766</v>
       </c>
       <c r="O8">
-        <v>0.9708116216203443</v>
+        <v>0.9783373008518612</v>
       </c>
       <c r="P8">
-        <v>0.9708116216203443</v>
+        <v>0.9783373008518613</v>
       </c>
       <c r="Q8">
-        <v>4179.522681140974</v>
+        <v>6442.246675225352</v>
       </c>
       <c r="R8">
-        <v>4179.522681140974</v>
+        <v>57980.22007702816</v>
       </c>
       <c r="S8">
-        <v>0.03251763060629873</v>
+        <v>0.0334651292459347</v>
       </c>
       <c r="T8">
-        <v>0.03251763060629873</v>
+        <v>0.0334651292459347</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>51.2204597067405</v>
+        <v>52.663316</v>
       </c>
       <c r="H9">
-        <v>51.2204597067405</v>
+        <v>157.989948</v>
       </c>
       <c r="I9">
-        <v>0.03349530421980817</v>
+        <v>0.03420612626830831</v>
       </c>
       <c r="J9">
-        <v>0.03349530421980817</v>
+        <v>0.0342061262683083</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.251722615305948</v>
+        <v>0.3863573333333334</v>
       </c>
       <c r="N9">
-        <v>0.251722615305948</v>
+        <v>1.159072</v>
       </c>
       <c r="O9">
-        <v>0.002994842499324812</v>
+        <v>0.003089929874945324</v>
       </c>
       <c r="P9">
-        <v>0.002994842499324812</v>
+        <v>0.003089929874945324</v>
       </c>
       <c r="Q9">
-        <v>12.89334807455365</v>
+        <v>20.34685833425067</v>
       </c>
       <c r="R9">
-        <v>12.89334807455365</v>
+        <v>183.121725008256</v>
       </c>
       <c r="S9">
-        <v>0.0001003131606052952</v>
+        <v>0.0001056945314625978</v>
       </c>
       <c r="T9">
-        <v>0.0001003131606052952</v>
+        <v>0.0001056945314625978</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>51.2204597067405</v>
+        <v>52.663316</v>
       </c>
       <c r="H10">
-        <v>51.2204597067405</v>
+        <v>157.989948</v>
       </c>
       <c r="I10">
-        <v>0.03349530421980817</v>
+        <v>0.03420612626830831</v>
       </c>
       <c r="J10">
-        <v>0.03349530421980817</v>
+        <v>0.0342061262683083</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.20162007096986</v>
+        <v>2.322294</v>
       </c>
       <c r="N10">
-        <v>2.20162007096986</v>
+        <v>6.966882000000001</v>
       </c>
       <c r="O10">
-        <v>0.02619353588033075</v>
+        <v>0.0185727692731934</v>
       </c>
       <c r="P10">
-        <v>0.02619353588033075</v>
+        <v>0.0185727692731934</v>
       </c>
       <c r="Q10">
-        <v>112.7679921346629</v>
+        <v>122.299702766904</v>
       </c>
       <c r="R10">
-        <v>112.7679921346629</v>
+        <v>1100.697324902136</v>
       </c>
       <c r="S10">
-        <v>0.0008773604529041393</v>
+        <v>0.0006353024909110103</v>
       </c>
       <c r="T10">
-        <v>0.0008773604529041393</v>
+        <v>0.0006353024909110102</v>
       </c>
     </row>
   </sheetData>
